--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>姓名</t>
   </si>
@@ -134,13 +134,37 @@
   </si>
   <si>
     <t>继续跟随老师学习</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晨旭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握了机器学习项目的基本流程以及正则化，归一化的区别，对于激活函数又有了深一层的见解，了解了梯度爆炸和梯度下降的解决方法，以及深度学习网络的优化算法有哪几种</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教授内容基本都掌握了</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不懂的都已问度娘解决</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度一下rnn以及自然语言处理的一些算法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,7 +251,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -650,13 +674,25 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+    <row r="7" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -141,14 +141,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2018.9.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握了机器学习项目的基本流程以及正则化，归一化的区别，对于激活函数又有了深一层的见解，了解了梯度爆炸和梯度下降的解决方法，以及深度学习网络的优化算法有哪几种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>教授内容基本都掌握了</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,6 +150,14 @@
   </si>
   <si>
     <t>百度一下rnn以及自然语言处理的一些算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对爬虫流程有了一定的了解，掌握了机器学习项目的基本流程以及正则化，归一化的区别，对于激活函数又有了深一层的见解，了解了梯度爆炸和梯度下降的解决方法，以及深度学习网络的优化算法有哪几种</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +540,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -679,19 +679,19 @@
         <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>姓名</t>
   </si>
@@ -25,46 +25,36 @@
   </si>
   <si>
     <t>今日进展</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>结果/进展</t>
   </si>
   <si>
     <t>问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>次日计划</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>方琳霖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2018.9.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>了解GitHub，包括基本介绍，账号创建，环境的搭建，基本操作包括文件的上传、下载等，以及小组的创建。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>所学知识已经掌握</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>已解决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握新知识</t>
   </si>
   <si>
     <t>王晨旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>学会了用github上传文件，以及把远程仓库的数据down到本地，以及git分支的应用，还有冒泡，快速排序以及折半的代码实现</t>
@@ -79,25 +69,22 @@
     <t>理通各算法的基本原理，再捎带背背面试题</t>
   </si>
   <si>
+    <t>王国正</t>
+  </si>
+  <si>
     <t xml:space="preserve">做了git一系列了解与操作（上传，修改，克隆） </t>
   </si>
   <si>
+    <t>成功</t>
+  </si>
+  <si>
     <t>掌握一大部分，git，命令还有一部分没掌握</t>
   </si>
   <si>
     <t>推荐掌握，git掌握</t>
   </si>
   <si>
-    <t>成功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王国正</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>闫新鹏</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>了解github的基本知识，包括本地仓库与git仓库的关联，文件的上传与下载，修改，以及还原，以及项目的克隆，分支的创建，一个团队构建项目。</t>
@@ -110,81 +97,72 @@
   </si>
   <si>
     <t>学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌握新知识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>武博宇</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>掌握git的相关用法，学习git的流程，掌握github使用方式，完成相关联系</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>老师教授内容基本掌握</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发生一些未知的错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>继续跟随老师学习</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>王晨旭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.4</t>
+  </si>
+  <si>
+    <t>对爬虫流程有了一定的了解，掌握了机器学习项目的基本流程以及正则化，归一化的区别，对于激活函数又有了深一层的见解，了解了梯度爆炸和梯度下降的解决方法，以及深度学习网络的优化算法有哪几种</t>
   </si>
   <si>
     <t>教授内容基本都掌握了</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>不懂的都已问度娘解决</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>百度一下rnn以及自然语言处理的一些算法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对爬虫流程有了一定的了解，掌握了机器学习项目的基本流程以及正则化，归一化的区别，对于激活函数又有了深一层的见解，了解了梯度爆炸和梯度下降的解决方法，以及深度学习网络的优化算法有哪几种</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.git实践基本掌握                                                  2.对机器学习项目流程深入了解                              3.加一步了解推荐系统                                                      4.爬虫做了进一步了解</t>
+  </si>
+  <si>
+    <t>基本都已经掌握，还不太熟悉</t>
+  </si>
+  <si>
+    <t>多练习</t>
+  </si>
+  <si>
+    <t>掌握机器学习项目流程，尽快掌握推荐系统，搞懂爬虫。跟着老师节奏走</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,11 +170,167 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +343,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -218,33 +538,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -293,7 +902,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +937,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,365 +1140,383 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="71.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.1111111111111" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="91.2" customHeight="1" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="89.4" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" ht="85.8" customHeight="1" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="90.6" customHeight="1" spans="1:6">
+      <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="88.8" spans="1:6">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" ht="88.8" spans="1:6">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" ht="22.2" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" ht="22.2" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" ht="22.2" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" ht="22.2" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" ht="22.2" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" ht="22.2" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" ht="22.2" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" ht="22.2" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" ht="22.2" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" ht="22.2" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" ht="22.2" spans="1:6">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" ht="22.2" spans="1:6">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" ht="22.2" spans="1:6">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" ht="22.2" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" ht="22.2" spans="1:6">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" ht="22.2" spans="1:6">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" ht="22.2" spans="1:6">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" ht="22.2" spans="1:6">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" ht="22.2" spans="1:6">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" ht="22.2" spans="1:6">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>姓名</t>
   </si>
@@ -129,9 +134,6 @@
     <t>百度一下rnn以及自然语言处理的一些算法</t>
   </si>
   <si>
-    <t>1.git实践基本掌握                                                  2.对机器学习项目流程深入了解                              3.加一步了解推荐系统                                                      4.爬虫做了进一步了解</t>
-  </si>
-  <si>
     <t>基本都已经掌握，还不太熟悉</t>
   </si>
   <si>
@@ -139,19 +141,37 @@
   </si>
   <si>
     <t>掌握机器学习项目流程，尽快掌握推荐系统，搞懂爬虫。跟着老师节奏走</t>
+  </si>
+  <si>
+    <t>武博宇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.git实践基本掌握  2.对机器学习项目流程深入了解    3.加一步了解推荐系统   4.爬虫做了进一步了解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习scrapy的使用，了解爬虫流程，学习构建传统机器学习的步骤：收集、处理数据，构建模型，选择模型，改善神经网络：深度学习回顾与学习。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>爬虫程序实现，继续深入学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握的不扎实</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>预习RNN，加强自然语言处理的学习</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,158 +199,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,194 +218,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -538,253 +227,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -798,62 +245,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1140,30 +546,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.1111111111111" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="91.2" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="89.4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1243,7 +649,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="85.8" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1263,7 +669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="90.6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1283,63 +689,75 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="88.8" spans="1:6">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="88.8" spans="1:6">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" ht="22.2" spans="1:6">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" ht="22.2" spans="1:6">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" ht="22.2" spans="1:6">
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1347,7 +765,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" ht="22.2" spans="1:6">
+    <row r="12" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1355,7 +773,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" ht="22.2" spans="1:6">
+    <row r="13" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1363,7 +781,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="22.2" spans="1:6">
+    <row r="14" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1371,7 +789,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="22.2" spans="1:6">
+    <row r="15" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1379,7 +797,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" ht="22.2" spans="1:6">
+    <row r="16" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1387,7 +805,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" ht="22.2" spans="1:6">
+    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1395,7 +813,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" ht="22.2" spans="1:6">
+    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1403,7 +821,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" ht="22.2" spans="1:6">
+    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1411,7 +829,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="22.2" spans="1:6">
+    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1419,7 +837,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="22.2" spans="1:6">
+    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1427,7 +845,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="22.2" spans="1:6">
+    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1435,7 +853,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="22.2" spans="1:6">
+    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1443,7 +861,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="22.2" spans="1:6">
+    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1451,7 +869,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" ht="22.2" spans="1:6">
+    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1459,7 +877,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="22.2" spans="1:6">
+    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1467,7 +885,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="22.2" spans="1:6">
+    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1475,7 +893,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="22.2" spans="1:6">
+    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1483,40 +901,42 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
+    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9516"/>
+    <workbookView windowWidth="22728" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>姓名</t>
   </si>
@@ -134,6 +129,9 @@
     <t>百度一下rnn以及自然语言处理的一些算法</t>
   </si>
   <si>
+    <t>1.git实践基本掌握  2.对机器学习项目流程深入了解    3.加一步了解推荐系统   4.爬虫做了进一步了解</t>
+  </si>
+  <si>
     <t>基本都已经掌握，还不太熟悉</t>
   </si>
   <si>
@@ -143,35 +141,53 @@
     <t>掌握机器学习项目流程，尽快掌握推荐系统，搞懂爬虫。跟着老师节奏走</t>
   </si>
   <si>
-    <t>武博宇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.git实践基本掌握  2.对机器学习项目流程深入了解    3.加一步了解推荐系统   4.爬虫做了进一步了解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>学习scrapy的使用，了解爬虫流程，学习构建传统机器学习的步骤：收集、处理数据，构建模型，选择模型，改善神经网络：深度学习回顾与学习。</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>爬虫程序实现，继续深入学习</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>掌握的不扎实</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预习RNN，加强自然语言处理的学习</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.继续学习GitHub，了解并掌握了tags，rebase等知识点  2.学习scrapy，了解其基本流程，编写并运行了简单的爬虫程序 3.回顾了机器学习项目的基本流成，并对许多的知识点有了新的认识</t>
+  </si>
+  <si>
+    <t>简单爬虫程序已基本掌握，机器学习相关知识还有欠缺</t>
+  </si>
+  <si>
+    <t>相关知识有待加强</t>
+  </si>
+  <si>
+    <t>学习RNN并掌握</t>
+  </si>
+  <si>
+    <t>scrapy框架的基本运行过程；git命令rebase,tag(版本)的应用；构建机器学习应用的一般步骤；改善神经网络（优化算法，正则化，梯度消失和梯度爆炸，过拟合）</t>
+  </si>
+  <si>
+    <t>基本理解，优化算法原理还需要理解</t>
+  </si>
+  <si>
+    <t>需要加深理解和记忆</t>
+  </si>
+  <si>
+    <t>学习RNN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,19 +209,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +366,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -227,11 +561,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,24 +818,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -546,30 +1163,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,7 +1206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="104.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -609,7 +1226,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="91.2" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -629,7 +1246,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="89.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -649,7 +1266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="85.8" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -669,7 +1286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="90.6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -689,7 +1306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="90.6" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -697,7 +1314,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="88.8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -717,63 +1334,87 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="88.8" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>41</v>
+      <c r="C9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" ht="121.8" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="3" t="s">
+    </row>
+    <row r="11" ht="88.8" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" ht="88.8" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" ht="22.2" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -781,7 +1422,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="14" ht="22.2" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -789,7 +1430,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="15" ht="22.2" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -797,7 +1438,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="16" ht="22.2" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -805,7 +1446,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="17" ht="22.2" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -813,7 +1454,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="18" ht="22.2" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -821,7 +1462,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="19" ht="22.2" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -829,7 +1470,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="20" ht="22.2" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -837,7 +1478,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="21" ht="22.2" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -845,7 +1486,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="22" ht="22.2" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -853,7 +1494,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="23" ht="22.2" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -861,7 +1502,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="24" ht="22.2" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -869,7 +1510,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="25" ht="22.2" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -877,7 +1518,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="26" ht="22.2" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -885,7 +1526,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="27" ht="22.2" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -893,7 +1534,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="28" ht="22.2" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -901,7 +1542,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="29" ht="22.2" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -910,33 +1551,39 @@
       <c r="F29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22728" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>姓名</t>
   </si>
@@ -175,19 +180,37 @@
   </si>
   <si>
     <t>学习RNN</t>
+  </si>
+  <si>
+    <t>王晨旭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户画像的基本流程大致已经搞懂，基于协同过滤的推荐系统也看了个大概，协同过滤的相似度计算依靠余弦定理或者欧式距离以及杰卡德相似度的度量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大致流程没问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不扎实，知道代码什么意思，但让自己敲还是有很多会忘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学习新知识的前提下复习原来的知识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,151 +232,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -366,194 +251,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -561,251 +260,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -822,61 +279,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1163,30 +576,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1206,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1226,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="91.2" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1246,7 +659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="89.4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1266,7 +679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="85.8" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1286,7 +699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="90.6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1306,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="90.6" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1314,7 +727,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="88.8" spans="1:6">
+    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1334,7 +747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="88.8" spans="1:6">
+    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1354,7 +767,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="121.8" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1374,7 +787,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="88.8" spans="1:6">
+    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1394,7 +807,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="88.8" spans="1:6">
+    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1414,15 +827,27 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="22.2" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" ht="22.2" spans="1:6">
+    <row r="13" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1430,7 +855,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" ht="22.2" spans="1:6">
+    <row r="15" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1438,7 +863,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" ht="22.2" spans="1:6">
+    <row r="16" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1446,7 +871,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" ht="22.2" spans="1:6">
+    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1454,7 +879,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" ht="22.2" spans="1:6">
+    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1462,7 +887,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" ht="22.2" spans="1:6">
+    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1470,7 +895,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="22.2" spans="1:6">
+    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1478,7 +903,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="22.2" spans="1:6">
+    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1486,7 +911,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="22.2" spans="1:6">
+    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1494,7 +919,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="22.2" spans="1:6">
+    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1502,7 +927,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="22.2" spans="1:6">
+    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1510,7 +935,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" ht="22.2" spans="1:6">
+    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1518,7 +943,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="22.2" spans="1:6">
+    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1526,7 +951,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="22.2" spans="1:6">
+    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1534,7 +959,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="22.2" spans="1:6">
+    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1542,7 +967,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" ht="22.2" spans="1:6">
+    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1551,39 +976,33 @@
       <c r="F29" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22728" windowHeight="8952"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <t>姓名</t>
   </si>
@@ -182,35 +177,44 @@
     <t>学习RNN</t>
   </si>
   <si>
-    <t>王晨旭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>2018.9.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户画像的基本流程大致已经搞懂，基于协同过滤的推荐系统也看了个大概，协同过滤的相似度计算依靠余弦定理或者欧式距离以及杰卡德相似度的度量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>大致流程没问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>不扎实，知道代码什么意思，但让自己敲还是有很多会忘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>在学习新知识的前提下复习原来的知识</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐系统基本掌握；用户画像也大体了解；自己复习基础算法</t>
+  </si>
+  <si>
+    <t>还不太熟练</t>
+  </si>
+  <si>
+    <t>业务流程还有些问题</t>
+  </si>
+  <si>
+    <t>再一步加深推荐算法的理解；跟着老师脚步；自己背基本知识</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,13 +236,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,8 +393,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -260,9 +588,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -279,17 +849,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -576,30 +1190,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="104.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -639,7 +1253,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="91.2" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -659,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="89.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -679,7 +1293,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="85.8" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -699,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="90.6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -719,7 +1333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="90.6" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -727,7 +1341,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="88.8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -747,7 +1361,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="88.8" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -767,7 +1381,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="121.8" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -787,7 +1401,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="11" ht="88.8" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -807,7 +1421,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="88.8" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -827,35 +1441,47 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+    <row r="13" ht="66.6" spans="1:6">
       <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="3" t="s">
+    </row>
+    <row r="14" ht="66.6" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" ht="22.2" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -863,7 +1489,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="16" ht="22.2" spans="1:6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -871,7 +1497,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="17" ht="22.2" spans="1:6">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -879,7 +1505,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="18" ht="22.2" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -887,7 +1513,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="19" ht="22.2" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -895,7 +1521,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="20" ht="22.2" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -903,7 +1529,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="21" ht="22.2" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -911,7 +1537,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="22" ht="22.2" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -919,7 +1545,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="23" ht="22.2" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -927,7 +1553,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="24" ht="22.2" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -935,7 +1561,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="25" ht="22.2" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -943,7 +1569,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="26" ht="22.2" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -951,7 +1577,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="27" ht="22.2" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -959,7 +1585,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="28" ht="22.2" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -967,7 +1593,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="29" ht="22.2" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -976,33 +1602,39 @@
       <c r="F29" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>姓名</t>
   </si>
@@ -202,19 +207,37 @@
   </si>
   <si>
     <t>再一步加深推荐算法的理解；跟着老师脚步；自己背基本知识</t>
+  </si>
+  <si>
+    <t>武博宇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习PCA和LDA的不同，学习搜狗用户预测的项目，学习数据处理，数据特征的分析，特征融合，评估模型的指标，TP、FN、FP、TN的意思，训练集、验证集、测试集的意思</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>有好多代码和之前使用的方式不同，还在学习</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对昨天的项目有了进一步的理解，今天产生了新问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随老师脚步，加强对项目的了解。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,151 +259,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,194 +278,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -588,251 +287,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -849,61 +306,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1190,30 +603,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1253,7 +666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="91.2" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1273,7 +686,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="89.4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="85.8" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1313,7 +726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="90.6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1333,7 +746,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="90.6" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1341,7 +754,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="88.8" spans="1:6">
+    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="88.8" spans="1:6">
+    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1381,7 +794,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="121.8" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1401,7 +814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="88.8" spans="1:6">
+    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="88.8" spans="1:6">
+    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1441,63 +854,75 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="66.6" spans="1:6">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" ht="66.6" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" ht="22.2" spans="1:6">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" ht="22.2" spans="1:6">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" ht="22.2" spans="1:6">
+    <row r="16" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1505,7 +930,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" ht="22.2" spans="1:6">
+    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1513,7 +938,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" ht="22.2" spans="1:6">
+    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1521,7 +946,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" ht="22.2" spans="1:6">
+    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1529,7 +954,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" ht="22.2" spans="1:6">
+    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1537,7 +962,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="22.2" spans="1:6">
+    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1545,7 +970,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="22.2" spans="1:6">
+    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1553,7 +978,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="22.2" spans="1:6">
+    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1561,7 +986,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" ht="22.2" spans="1:6">
+    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1569,7 +994,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="22.2" spans="1:6">
+    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1577,7 +1002,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="22.2" spans="1:6">
+    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1585,7 +1010,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="22.2" spans="1:6">
+    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1593,7 +1018,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" ht="22.2" spans="1:6">
+    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1601,40 +1026,42 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
+    <row r="30" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9516"/>
+    <workbookView windowWidth="22728" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
   <si>
     <t>姓名</t>
   </si>
@@ -209,35 +204,41 @@
     <t>再一步加深推荐算法的理解；跟着老师脚步；自己背基本知识</t>
   </si>
   <si>
-    <t>武博宇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>学习PCA和LDA的不同，学习搜狗用户预测的项目，学习数据处理，数据特征的分析，特征融合，评估模型的指标，TP、FN、FP、TN的意思，训练集、验证集、测试集的意思</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对昨天的项目有了进一步的理解，今天产生了新问题</t>
   </si>
   <si>
     <t>有好多代码和之前使用的方式不同，还在学习</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>对昨天的项目有了进一步的理解，今天产生了新问题</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>跟随老师脚步，加强对项目的了解。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解学习搜狗用户预测项目的基本流程，以及各个步骤的具体实现方法，对在以前的学习中有所不足的知识点加深印象</t>
+  </si>
+  <si>
+    <t>对项目有了一定的理解，发现在很多问题上有所欠缺</t>
+  </si>
+  <si>
+    <t>在具体的代码上还需理解</t>
+  </si>
+  <si>
+    <t xml:space="preserve">继续学习，加深对项目代码的理解 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +260,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +417,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,9 +612,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -306,17 +873,61 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -603,30 +1214,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="104.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -666,7 +1277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="91.2" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -686,7 +1297,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="89.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -706,7 +1317,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="85.8" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -726,7 +1337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="90.6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -746,7 +1357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="90.6" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -754,7 +1365,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="88.8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -774,7 +1385,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="88.8" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -794,7 +1405,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="121.8" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -814,7 +1425,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="11" ht="88.8" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -834,7 +1445,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="88.8" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -854,7 +1465,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="67.8" customHeight="1" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -862,7 +1473,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+    <row r="14" ht="66.6" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -882,7 +1493,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+    <row r="15" ht="66.6" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -902,35 +1513,47 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="102.6" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="F16" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" ht="66.6" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+      <c r="E17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" ht="22.2" spans="1:6">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -938,7 +1561,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="19" ht="22.2" spans="1:6">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -946,7 +1569,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="20" ht="22.2" spans="1:6">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -954,7 +1577,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="21" ht="22.2" spans="1:6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -962,7 +1585,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="22" ht="22.2" spans="1:6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -970,7 +1593,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="23" ht="22.2" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -978,7 +1601,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="24" ht="22.2" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -986,7 +1609,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="25" ht="22.2" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -994,7 +1617,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="26" ht="22.2" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1002,7 +1625,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="27" ht="22.2" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1010,7 +1633,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="28" ht="22.2" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1018,7 +1641,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="29" ht="22.2" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1026,7 +1649,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="30" ht="22.2" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1035,33 +1658,39 @@
       <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
   <si>
     <t>姓名</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t xml:space="preserve">继续学习，加深对项目代码的理解 </t>
+  </si>
+  <si>
+    <t>学习了用户画像的基本流程，通过Sogou项目，学习了数据的处理，关于特征工程,通过卡方检验可以挑取特征，也可以通过卡方检验和lda进行特征融合。评估模式的方式</t>
+  </si>
+  <si>
+    <t>对项目有了一步的理解，需要加深理解</t>
+  </si>
+  <si>
+    <t>好多代码细节需要加深理解</t>
   </si>
 </sst>
 </file>
@@ -234,8 +243,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -261,7 +270,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,8 +334,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,37 +366,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,72 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,187 +428,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,6 +619,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,9 +672,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -660,201 +719,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1222,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1553,13 +1562,25 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="22.2" spans="1:6">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+    <row r="18" ht="88.8" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" ht="22.2" spans="1:6">
       <c r="A19" s="3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8952"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>姓名</t>
   </si>
@@ -235,6 +235,21 @@
   </si>
   <si>
     <t>好多代码细节需要加深理解</t>
+  </si>
+  <si>
+    <t>2018.9.6</t>
+  </si>
+  <si>
+    <t>用户画像；推荐系统；面试知识点</t>
+  </si>
+  <si>
+    <t>用户画像基本了解清楚；推荐系统基本熟练掌握，面试知识点整理一部分</t>
+  </si>
+  <si>
+    <t>还是在加深理解用户画像；把推荐算法彻底搞透；TensorFlow代替svm没思路</t>
+  </si>
+  <si>
+    <t>继续整理面试题知识点；学习TensorFlow代替svm</t>
   </si>
 </sst>
 </file>
@@ -242,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -270,7 +285,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,6 +298,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -299,14 +359,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,23 +367,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,6 +397,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -349,69 +427,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -428,55 +443,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,127 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,34 +637,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -670,22 +672,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -701,6 +698,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -728,7 +743,7 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,133 +752,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1231,8 +1246,8 @@
   <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1582,13 +1597,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="22.2" spans="1:6">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+    <row r="19" ht="88.8" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="20" ht="22.2" spans="1:6">
       <c r="A20" s="3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9516"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
   <si>
     <t>姓名</t>
   </si>
@@ -250,19 +255,37 @@
   </si>
   <si>
     <t>继续整理面试题知识点；学习TensorFlow代替svm</t>
+  </si>
+  <si>
+    <t>王晨旭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户画像，推荐系统的协同过滤,基本算法的原理</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户大致步骤没问题，协同过滤有了了解，对于算法原理懂了但还是记不住</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>看着代码知道啥意思 但让自己上手可能会有点懵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续加油，不会才学了么，抓紧看看不会的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,151 +307,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,194 +326,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -636,251 +335,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -897,61 +354,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1238,30 +651,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1301,7 +714,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="91.2" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1321,7 +734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="89.4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1341,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="85.8" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1361,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="90.6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1381,7 +794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="90.6" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1389,7 +802,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="88.8" spans="1:6">
+    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="88.8" spans="1:6">
+    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +842,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="121.8" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1449,7 +862,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="88.8" spans="1:6">
+    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="88.8" spans="1:6">
+    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1489,7 +902,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="67.8" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1497,7 +910,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="66.6" spans="1:6">
+    <row r="14" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1517,7 +930,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="66.6" spans="1:6">
+    <row r="15" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1537,7 +950,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" ht="102.6" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +970,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="66.6" spans="1:6">
+    <row r="17" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1577,7 +990,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="88.8" spans="1:6">
+    <row r="18" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1597,7 +1010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="88.8" spans="1:6">
+    <row r="19" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1617,15 +1030,27 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="22.2" spans="1:6">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" ht="22.2" spans="1:6">
+    <row r="20" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1633,7 +1058,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" ht="22.2" spans="1:6">
+    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1641,7 +1066,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" ht="22.2" spans="1:6">
+    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1649,7 +1074,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" ht="22.2" spans="1:6">
+    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1657,7 +1082,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" ht="22.2" spans="1:6">
+    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1665,7 +1090,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="22.2" spans="1:6">
+    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1673,7 +1098,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="22.2" spans="1:6">
+    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1681,7 +1106,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="22.2" spans="1:6">
+    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1689,7 +1114,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" ht="22.2" spans="1:6">
+    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1697,7 +1122,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" ht="22.2" spans="1:6">
+    <row r="30" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1706,39 +1131,33 @@
       <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>姓名</t>
   </si>
@@ -279,13 +279,37 @@
   <si>
     <t>继续加油，不会才学了么，抓紧看看不会的</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武博宇</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.6</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用神经网络学习客户模型的预测，继续深入搜狗用户画像模型的理解。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师教授内容基本掌握</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确率低，方法与之前所学不一样，比较混乱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>听从老师讲解</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +333,20 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -339,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -351,6 +389,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -371,7 +412,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -413,7 +454,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,7 +489,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -660,7 +701,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1050,13 +1091,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+    <row r="21" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9516"/>
+    <workbookView windowWidth="22728" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>姓名</t>
   </si>
@@ -257,59 +252,50 @@
     <t>继续整理面试题知识点；学习TensorFlow代替svm</t>
   </si>
   <si>
-    <t>王晨旭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户画像，推荐系统的协同过滤,基本算法的原理</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>用户大致步骤没问题，协同过滤有了了解，对于算法原理懂了但还是记不住</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>看着代码知道啥意思 但让自己上手可能会有点懵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>继续加油，不会才学了么，抓紧看看不会的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>武博宇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>使用神经网络学习客户模型的预测，继续深入搜狗用户画像模型的理解。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师教授内容基本掌握</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>准确率低，方法与之前所学不一样，比较混乱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>听从老师讲解</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续学习搜狗用户画像项目，使用神经网络进行预测</t>
+  </si>
+  <si>
+    <t>对该项目已大体理解，但细节仍需加强，神经网络已实行</t>
+  </si>
+  <si>
+    <t>神经网络预测准确率较低，而且神经网络的知识还是不够扎实</t>
+  </si>
+  <si>
+    <t>查缺补漏，并听老师的讲解</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,27 +317,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,8 +480,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -373,9 +675,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -391,21 +935,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -454,7 +1042,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +1077,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -692,30 +1280,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -735,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" ht="104.4" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -755,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="91.2" customHeight="1" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -775,7 +1363,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" ht="89.4" customHeight="1" spans="1:6">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -795,7 +1383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" ht="85.8" customHeight="1" spans="1:6">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -815,7 +1403,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" ht="90.6" customHeight="1" spans="1:6">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -835,7 +1423,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" ht="90.6" customHeight="1" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -843,7 +1431,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="8" ht="88.8" spans="1:6">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -863,7 +1451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="9" ht="88.8" spans="1:6">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -883,7 +1471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="121.8" customHeight="1" spans="1:6">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -903,7 +1491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="11" ht="88.8" spans="1:6">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -923,7 +1511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="88.8" spans="1:6">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -943,7 +1531,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="67.8" customHeight="1" spans="1:6">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -951,7 +1539,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+    <row r="14" ht="66.6" spans="1:6">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -971,7 +1559,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+    <row r="15" ht="66.6" spans="1:6">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" ht="102.6" customHeight="1" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1599,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+    <row r="17" ht="66.6" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1031,7 +1619,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="18" ht="88.8" spans="1:6">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1051,7 +1639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="19" ht="88.8" spans="1:6">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1071,55 +1659,67 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
+    <row r="20" ht="88.8" spans="1:6">
       <c r="A20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="3" t="s">
+    </row>
+    <row r="21" ht="90.6" customHeight="1" spans="1:6">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="D21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="22" ht="66.6" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="D22" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F22" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" ht="22.2" spans="1:6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1127,7 +1727,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="24" ht="22.2" spans="1:6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1135,7 +1735,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="25" ht="22.2" spans="1:6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1143,7 +1743,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="26" ht="22.2" spans="1:6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1151,7 +1751,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="27" ht="22.2" spans="1:6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1159,7 +1759,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="28" ht="22.2" spans="1:6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1167,7 +1767,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="29" ht="22.2" spans="1:6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1175,7 +1775,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
+    <row r="30" ht="22.2" spans="1:6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1184,33 +1784,39 @@
       <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8952"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
   <si>
     <t>姓名</t>
   </si>
@@ -283,6 +283,18 @@
   </si>
   <si>
     <t>查缺补漏，并听老师的讲解</t>
+  </si>
+  <si>
+    <t>用神经网络模型进行用户画像的预测</t>
+  </si>
+  <si>
+    <t>对用此项目有一定的理解</t>
+  </si>
+  <si>
+    <t>神经网络准确率偏低和分类报告偏低</t>
+  </si>
+  <si>
+    <t>继续加油</t>
   </si>
 </sst>
 </file>
@@ -291,11 +303,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,10 +329,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -330,8 +343,116 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,127 +466,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -482,187 +488,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,8 +685,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,73 +774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,7 +788,7 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,137 +797,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -933,9 +939,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1289,7 +1292,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1680,22 +1683,22 @@
       </c>
     </row>
     <row r="21" ht="90.6" customHeight="1" spans="1:6">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1719,13 +1722,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="22.2" spans="1:6">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+    <row r="23" ht="44.4" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="24" ht="22.2" spans="1:6">
       <c r="A24" s="3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>姓名</t>
   </si>
@@ -295,19 +300,37 @@
   </si>
   <si>
     <t>继续加油</t>
+  </si>
+  <si>
+    <t>王晨旭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对决策树，随机森林，GDBT算法有了新的了解,对于情感分析这一方面大体有些懂了，但还不是很透彻</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本了解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题倒是没有，但学习还有待提升</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续加油</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,151 +352,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,194 +371,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -681,251 +380,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -942,61 +399,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1283,30 +696,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88888888888889" style="2"/>
+    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="91.2" customHeight="1" spans="1:6">
+    <row r="3" spans="1:6" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1366,7 +779,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="89.4" customHeight="1" spans="1:6">
+    <row r="4" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1386,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="85.8" customHeight="1" spans="1:6">
+    <row r="5" spans="1:6" ht="85.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1406,7 +819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="90.6" customHeight="1" spans="1:6">
+    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1426,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="90.6" customHeight="1" spans="1:6">
+    <row r="7" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1434,7 +847,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" ht="88.8" spans="1:6">
+    <row r="8" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +867,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" ht="88.8" spans="1:6">
+    <row r="9" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
@@ -1474,7 +887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" ht="121.8" customHeight="1" spans="1:6">
+    <row r="10" spans="1:6" ht="121.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1494,7 +907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" ht="88.8" spans="1:6">
+    <row r="11" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +927,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" ht="88.8" spans="1:6">
+    <row r="12" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1534,7 +947,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" ht="67.8" customHeight="1" spans="1:6">
+    <row r="13" spans="1:6" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1542,7 +955,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" ht="66.6" spans="1:6">
+    <row r="14" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1562,7 +975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" ht="66.6" spans="1:6">
+    <row r="15" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1582,7 +995,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" ht="102.6" customHeight="1" spans="1:6">
+    <row r="16" spans="1:6" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1602,7 +1015,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="17" ht="66.6" spans="1:6">
+    <row r="17" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1035,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" ht="88.8" spans="1:6">
+    <row r="18" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1642,7 +1055,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" ht="88.8" spans="1:6">
+    <row r="19" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" ht="88.8" spans="1:6">
+    <row r="20" spans="1:6" ht="88.8" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
@@ -1682,7 +1095,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" ht="90.6" customHeight="1" spans="1:6">
+    <row r="21" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -1702,7 +1115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" ht="66.6" spans="1:6">
+    <row r="22" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
@@ -1722,7 +1135,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" ht="44.4" spans="1:6">
+    <row r="23" spans="1:6" ht="44.4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1742,15 +1155,27 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" ht="22.2" spans="1:6">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" ht="22.2" spans="1:6">
+    <row r="24" spans="1:6" ht="44.4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1758,7 +1183,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" ht="22.2" spans="1:6">
+    <row r="26" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1766,7 +1191,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" ht="22.2" spans="1:6">
+    <row r="27" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1774,7 +1199,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" ht="22.2" spans="1:6">
+    <row r="28" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1782,7 +1207,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" ht="22.2" spans="1:6">
+    <row r="29" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1790,7 +1215,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" ht="22.2" spans="1:6">
+    <row r="30" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1799,39 +1224,33 @@
       <c r="F30" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\大实训2\git_test\1601Mtest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>姓名</t>
   </si>
@@ -63,12 +63,36 @@
   <si>
     <t>深入学习项目。</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>王晨旭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.9.7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对SVM，决策树，随机森林有了更深的了解，对于情感分析这一块不太懂，也不打算钻研，先老老实实学好数据挖掘再说</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法的优缺点有了更深的理解</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>革命尚未成功，仍需继续努力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>接着加油</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,7 +193,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -512,13 +536,25 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+    <row r="3" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\软件\八维课程\Python\Python数据库\大一\1601Mtest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22944" windowHeight="9924"/>
+    <workbookView windowWidth="22728" windowHeight="8952"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>姓名</t>
   </si>
@@ -42,58 +37,64 @@
   </si>
   <si>
     <t>武博宇</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>2018.9.7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>学习情感分析的项目，输入一段文本然后判断这段文本的情绪，数据处理、模型的训练、模型的评估。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>对今日的项目有了整体的了解。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>一些细节的问题还需要学习</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>深入学习项目。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>王晨旭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.9.7</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>对SVM，决策树，随机森林有了更深的了解，对于情感分析这一块不太懂，也不打算钻研，先老老实实学好数据挖掘再说</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>算法的优缺点有了更深的理解</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>革命尚未成功，仍需继续努力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>接着加油</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>方琳霖</t>
+  </si>
+  <si>
+    <t>加深对神经网络的理解， 学习情感分析项目</t>
+  </si>
+  <si>
+    <t>对情感分析项目有了一定的认识</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 知识有欠缺，无法全面而深刻的理解代码</t>
+  </si>
+  <si>
+    <t>继续学习该项目</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,27 +116,157 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +279,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -157,9 +474,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -172,21 +731,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -235,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -473,30 +1076,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="72.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="17.2222222222222" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.7777777777778" style="2" customWidth="1"/>
+    <col min="3" max="3" width="72.8888888888889" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.2222222222222" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.5555555555556" style="2" customWidth="1"/>
+    <col min="6" max="6" width="33.7777777777778" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88888888888889" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="20.4" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,106 +1119,124 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="104.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="104.4" customHeight="1" spans="1:6">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="66.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="66.6" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+    </row>
+    <row r="4" ht="44.4" spans="1:6">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+    <row r="5" ht="22.2" spans="1:6">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+    <row r="6" ht="22.2" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="22.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+    <row r="7" ht="22.2" spans="1:6">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22728" windowHeight="8952"/>
+    <workbookView windowWidth="22943" windowHeight="9515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>姓名</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>继续学习该项目</t>
+  </si>
+  <si>
+    <t>王国正</t>
+  </si>
+  <si>
+    <t>做了简历，掌握一部分知识点。了解了神经网络和情感分析</t>
+  </si>
+  <si>
+    <t>建立基本完成。知识点还有很多</t>
+  </si>
+  <si>
+    <t>知识点需要进一步整理</t>
+  </si>
+  <si>
+    <t>继续整理知识点并且学习老师所讲内容</t>
   </si>
 </sst>
 </file>
@@ -90,11 +105,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,22 +131,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -153,6 +161,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -168,14 +198,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,6 +236,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -212,16 +244,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,24 +268,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,187 +290,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,26 +484,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,26 +523,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,16 +567,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -578,10 +587,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,137 +599,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -729,9 +738,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,7 +1091,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1140,68 +1146,80 @@
       </c>
     </row>
     <row r="3" ht="66.6" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="44.4" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="22.2" spans="1:6">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+    <row r="5" ht="44.4" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" ht="22.2" spans="1:6">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" ht="22.2" spans="1:6">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9515"/>
+    <workbookView windowWidth="22943" windowHeight="9924"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>姓名</t>
   </si>
@@ -97,6 +97,21 @@
   </si>
   <si>
     <t>继续整理知识点并且学习老师所讲内容</t>
+  </si>
+  <si>
+    <t>闫新鹏</t>
+  </si>
+  <si>
+    <t>了解了情感分析项目，通过评论判断用户的情绪</t>
+  </si>
+  <si>
+    <t>对情感分析用一定的了解</t>
+  </si>
+  <si>
+    <t>还需要深刻理解代码</t>
+  </si>
+  <si>
+    <t>继续学习</t>
   </si>
 </sst>
 </file>
@@ -104,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -132,14 +147,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,13 +238,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -182,87 +252,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -290,187 +305,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +499,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +577,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,66 +596,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -599,133 +614,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1091,7 +1106,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1205,13 +1220,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" ht="22.2" spans="1:6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+    <row r="6" ht="44.4" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" ht="22.2" spans="1:6">
       <c r="A7" s="3"/>

--- a/2组日志.xlsx
+++ b/2组日志.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>姓名</t>
   </si>
@@ -112,6 +112,21 @@
   </si>
   <si>
     <t>继续学习</t>
+  </si>
+  <si>
+    <t>2018.9.10</t>
+  </si>
+  <si>
+    <t>周考复习爬虫；复习知识点</t>
+  </si>
+  <si>
+    <t>大体基本掌握</t>
+  </si>
+  <si>
+    <t>还不太熟练</t>
+  </si>
+  <si>
+    <t>继续复习知识点，掌握老师所讲内容</t>
   </si>
 </sst>
 </file>
@@ -120,8 +135,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -147,12 +162,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,6 +198,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -173,6 +240,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,31 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,61 +281,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,187 +320,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,6 +511,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,32 +541,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,21 +577,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -591,8 +591,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -602,145 +617,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,7 +1121,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1240,13 +1255,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" ht="22.2" spans="1:6">
+    <row r="7" ht="44.4" spans="1:6">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
